--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Wnt6</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt6</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.128969</v>
       </c>
       <c r="I2">
-        <v>0.09569889600743219</v>
+        <v>0.1623170347995721</v>
       </c>
       <c r="J2">
-        <v>0.1114785697924185</v>
+        <v>0.2135987452611914</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N2">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O2">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P2">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q2">
-        <v>0.02964754418383334</v>
+        <v>0.08189995788400001</v>
       </c>
       <c r="R2">
-        <v>0.177885265103</v>
+        <v>0.491399747304</v>
       </c>
       <c r="S2">
-        <v>0.003055150370812915</v>
+        <v>0.01230442037986083</v>
       </c>
       <c r="T2">
-        <v>0.002650557356483706</v>
+        <v>0.01220829869057622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.128969</v>
       </c>
       <c r="I3">
-        <v>0.09569889600743219</v>
+        <v>0.1623170347995721</v>
       </c>
       <c r="J3">
-        <v>0.1114785697924185</v>
+        <v>0.2135987452611914</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>9.20485</v>
       </c>
       <c r="O3">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P3">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q3">
         <v>0.1319044777388889</v>
@@ -641,10 +641,10 @@
         <v>1.18714029965</v>
       </c>
       <c r="S3">
-        <v>0.01359262715242356</v>
+        <v>0.01981695944684185</v>
       </c>
       <c r="T3">
-        <v>0.01768883697361683</v>
+        <v>0.0294932251090097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -673,10 +673,10 @@
         <v>0.128969</v>
       </c>
       <c r="I4">
-        <v>0.09569889600743219</v>
+        <v>0.1623170347995721</v>
       </c>
       <c r="J4">
-        <v>0.1114785697924185</v>
+        <v>0.2135987452611914</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N4">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O4">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P4">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q4">
-        <v>0.2280228952957778</v>
+        <v>0.1601775204753333</v>
       </c>
       <c r="R4">
-        <v>2.052206057662</v>
+        <v>1.441597684278</v>
       </c>
       <c r="S4">
-        <v>0.02349753587673568</v>
+        <v>0.02406462223245294</v>
       </c>
       <c r="T4">
-        <v>0.03057864213771072</v>
+        <v>0.035814945404156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -735,10 +735,10 @@
         <v>0.128969</v>
       </c>
       <c r="I5">
-        <v>0.09569889600743219</v>
+        <v>0.1623170347995721</v>
       </c>
       <c r="J5">
-        <v>0.1114785697924185</v>
+        <v>0.2135987452611914</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N5">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O5">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P5">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q5">
-        <v>0.2625082314633334</v>
+        <v>0.2934404143613333</v>
       </c>
       <c r="R5">
-        <v>1.57504938878</v>
+        <v>1.760642486168</v>
       </c>
       <c r="S5">
-        <v>0.02705121596998827</v>
+        <v>0.04408566631812354</v>
       </c>
       <c r="T5">
-        <v>0.02346882830255054</v>
+        <v>0.04374127067908381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.128969</v>
       </c>
       <c r="I6">
-        <v>0.09569889600743219</v>
+        <v>0.1623170347995721</v>
       </c>
       <c r="J6">
-        <v>0.1114785697924185</v>
+        <v>0.2135987452611914</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N6">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O6">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P6">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q6">
-        <v>0.04053428319522222</v>
+        <v>0.1826040545244444</v>
       </c>
       <c r="R6">
-        <v>0.364808548757</v>
+        <v>1.64343649072</v>
       </c>
       <c r="S6">
-        <v>0.00417701815592697</v>
+        <v>0.02743392192115809</v>
       </c>
       <c r="T6">
-        <v>0.0054357845887692</v>
+        <v>0.0408294136653066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>0.128969</v>
       </c>
       <c r="I7">
-        <v>0.09569889600743219</v>
+        <v>0.1623170347995721</v>
       </c>
       <c r="J7">
-        <v>0.1114785697924185</v>
+        <v>0.2135987452611914</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N7">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O7">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P7">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q7">
-        <v>0.236056087708</v>
+        <v>0.2303786573796667</v>
       </c>
       <c r="R7">
-        <v>2.124504789372</v>
+        <v>2.073407916417</v>
       </c>
       <c r="S7">
-        <v>0.02432534848154479</v>
+        <v>0.03461144450113483</v>
       </c>
       <c r="T7">
-        <v>0.03165592043328749</v>
+        <v>0.05151159171305902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.04608399999999999</v>
+        <v>0.03110133333333333</v>
       </c>
       <c r="H8">
-        <v>0.138252</v>
+        <v>0.093304</v>
       </c>
       <c r="I8">
-        <v>0.1025871625803062</v>
+        <v>0.1174299918192687</v>
       </c>
       <c r="J8">
-        <v>0.1195026342062158</v>
+        <v>0.154530292766868</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N8">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O8">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P8">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q8">
-        <v>0.031781531054</v>
+        <v>0.059251398944</v>
       </c>
       <c r="R8">
-        <v>0.190689186324</v>
+        <v>0.355508393664</v>
       </c>
       <c r="S8">
-        <v>0.003275055626279393</v>
+        <v>0.008901764293144357</v>
       </c>
       <c r="T8">
-        <v>0.002841340598504953</v>
+        <v>0.008832224030778895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.04608399999999999</v>
+        <v>0.03110133333333333</v>
       </c>
       <c r="H9">
-        <v>0.138252</v>
+        <v>0.093304</v>
       </c>
       <c r="I9">
-        <v>0.1025871625803062</v>
+        <v>0.1174299918192687</v>
       </c>
       <c r="J9">
-        <v>0.1195026342062158</v>
+        <v>0.154530292766868</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>9.20485</v>
       </c>
       <c r="O9">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P9">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q9">
-        <v>0.1413987691333333</v>
+        <v>0.0954277027111111</v>
       </c>
       <c r="R9">
-        <v>1.2725889222</v>
+        <v>0.8588493244000001</v>
       </c>
       <c r="S9">
-        <v>0.01457100457533874</v>
+        <v>0.0143367908895016</v>
       </c>
       <c r="T9">
-        <v>0.01896205358866452</v>
+        <v>0.02133718859238298</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.04608399999999999</v>
+        <v>0.03110133333333333</v>
       </c>
       <c r="H10">
-        <v>0.138252</v>
+        <v>0.093304</v>
       </c>
       <c r="I10">
-        <v>0.1025871625803062</v>
+        <v>0.1174299918192687</v>
       </c>
       <c r="J10">
-        <v>0.1195026342062158</v>
+        <v>0.154530292766868</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N10">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O10">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P10">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q10">
-        <v>0.2444356498106666</v>
+        <v>0.1158821373386666</v>
       </c>
       <c r="R10">
-        <v>2.199920848296</v>
+        <v>1.042939236048</v>
       </c>
       <c r="S10">
-        <v>0.02518885414347991</v>
+        <v>0.01740980788233443</v>
       </c>
       <c r="T10">
-        <v>0.03277964807684623</v>
+        <v>0.02591070463436462</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.04608399999999999</v>
+        <v>0.03110133333333333</v>
       </c>
       <c r="H11">
-        <v>0.138252</v>
+        <v>0.093304</v>
       </c>
       <c r="I11">
-        <v>0.1025871625803062</v>
+        <v>0.1174299918192687</v>
       </c>
       <c r="J11">
-        <v>0.1195026342062158</v>
+        <v>0.154530292766868</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N11">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O11">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P11">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q11">
-        <v>0.2814031900399999</v>
+        <v>0.2122926007146667</v>
       </c>
       <c r="R11">
-        <v>1.68841914024</v>
+        <v>1.273755604288</v>
       </c>
       <c r="S11">
-        <v>0.0289983229325095</v>
+        <v>0.03189424598272608</v>
       </c>
       <c r="T11">
-        <v>0.02515808024009039</v>
+        <v>0.03164508928068943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04608399999999999</v>
+        <v>0.03110133333333333</v>
       </c>
       <c r="H12">
-        <v>0.138252</v>
+        <v>0.093304</v>
       </c>
       <c r="I12">
-        <v>0.1025871625803062</v>
+        <v>0.1174299918192687</v>
       </c>
       <c r="J12">
-        <v>0.1195026342062158</v>
+        <v>0.154530292766868</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N12">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O12">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P12">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q12">
-        <v>0.04345188161733333</v>
+        <v>0.1321068528355555</v>
       </c>
       <c r="R12">
-        <v>0.3910669345559999</v>
+        <v>1.18896167552</v>
       </c>
       <c r="S12">
-        <v>0.004477673813809638</v>
+        <v>0.01984736371478211</v>
       </c>
       <c r="T12">
-        <v>0.00582704441351425</v>
+        <v>0.02953847523534932</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04608399999999999</v>
+        <v>0.03110133333333333</v>
       </c>
       <c r="H13">
-        <v>0.138252</v>
+        <v>0.093304</v>
       </c>
       <c r="I13">
-        <v>0.1025871625803062</v>
+        <v>0.1174299918192687</v>
       </c>
       <c r="J13">
-        <v>0.1195026342062158</v>
+        <v>0.154530292766868</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N13">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O13">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P13">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q13">
-        <v>0.253047059664</v>
+        <v>0.1666698993413334</v>
       </c>
       <c r="R13">
-        <v>2.277423536976</v>
+        <v>1.500029094072</v>
       </c>
       <c r="S13">
-        <v>0.02607625148888903</v>
+        <v>0.02504001905678018</v>
       </c>
       <c r="T13">
-        <v>0.03393446728859541</v>
+        <v>0.03726661099330272</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1293,10 +1293,10 @@
         <v>0.381518</v>
       </c>
       <c r="I14">
-        <v>0.4246468307147087</v>
+        <v>0.7202529733811591</v>
       </c>
       <c r="J14">
-        <v>0.3297775511174307</v>
+        <v>0.6318709619719407</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N14">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O14">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P14">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q14">
-        <v>0.1315557044165</v>
+        <v>0.363416496972</v>
       </c>
       <c r="R14">
-        <v>0.526222817666</v>
+        <v>1.453665987888</v>
       </c>
       <c r="S14">
-        <v>0.01355668640338145</v>
+        <v>0.05459867705980209</v>
       </c>
       <c r="T14">
-        <v>0.007840917906868708</v>
+        <v>0.03611476943940992</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1355,10 +1355,10 @@
         <v>0.381518</v>
       </c>
       <c r="I15">
-        <v>0.4246468307147087</v>
+        <v>0.7202529733811591</v>
       </c>
       <c r="J15">
-        <v>0.3297775511174307</v>
+        <v>0.6318709619719407</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.20485</v>
       </c>
       <c r="O15">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P15">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q15">
-        <v>0.5853026603833333</v>
+        <v>0.5853026603833335</v>
       </c>
       <c r="R15">
         <v>3.5118159623</v>
       </c>
       <c r="S15">
-        <v>0.06031486550184539</v>
+        <v>0.0879342330432919</v>
       </c>
       <c r="T15">
-        <v>0.05232737870728893</v>
+        <v>0.08724729397870158</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1417,10 +1417,10 @@
         <v>0.381518</v>
       </c>
       <c r="I16">
-        <v>0.4246468307147087</v>
+        <v>0.7202529733811591</v>
       </c>
       <c r="J16">
-        <v>0.3297775511174307</v>
+        <v>0.6318709619719407</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N16">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O16">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P16">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q16">
-        <v>1.011811043360667</v>
+        <v>0.710759259086</v>
       </c>
       <c r="R16">
-        <v>6.070866260164</v>
+        <v>4.264555554516</v>
       </c>
       <c r="S16">
-        <v>0.1042661363500582</v>
+        <v>0.1067824811956476</v>
       </c>
       <c r="T16">
-        <v>0.09045819065895772</v>
+        <v>0.1059483002946661</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1479,10 +1479,10 @@
         <v>0.381518</v>
       </c>
       <c r="I17">
-        <v>0.4246468307147087</v>
+        <v>0.7202529733811591</v>
       </c>
       <c r="J17">
-        <v>0.3297775511174307</v>
+        <v>0.6318709619719407</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N17">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O17">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P17">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q17">
-        <v>1.16483358929</v>
+        <v>1.302089649524</v>
       </c>
       <c r="R17">
-        <v>4.65933435716</v>
+        <v>5.208358598096</v>
       </c>
       <c r="S17">
-        <v>0.1200349597318501</v>
+        <v>0.1956223035267141</v>
       </c>
       <c r="T17">
-        <v>0.06942583439688978</v>
+        <v>0.1293960727534733</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1541,10 +1541,10 @@
         <v>0.381518</v>
       </c>
       <c r="I18">
-        <v>0.4246468307147087</v>
+        <v>0.7202529733811591</v>
       </c>
       <c r="J18">
-        <v>0.3297775511174307</v>
+        <v>0.6318709619719407</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N18">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O18">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P18">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q18">
-        <v>0.1798636725423333</v>
+        <v>0.8102730153066666</v>
       </c>
       <c r="R18">
-        <v>1.079182035254</v>
+        <v>4.86163809184</v>
       </c>
       <c r="S18">
-        <v>0.0185347751724788</v>
+        <v>0.1217331493248345</v>
       </c>
       <c r="T18">
-        <v>0.01608021822870649</v>
+        <v>0.1207821743423648</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1603,10 +1603,10 @@
         <v>0.381518</v>
       </c>
       <c r="I19">
-        <v>0.4246468307147087</v>
+        <v>0.7202529733811591</v>
       </c>
       <c r="J19">
-        <v>0.3297775511174307</v>
+        <v>0.6318709619719407</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N19">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O19">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P19">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q19">
-        <v>1.047456905964</v>
+        <v>1.022264318629</v>
       </c>
       <c r="R19">
-        <v>6.284741435783999</v>
+        <v>6.133585911774001</v>
       </c>
       <c r="S19">
-        <v>0.1079394075550947</v>
+        <v>0.1535821292308689</v>
       </c>
       <c r="T19">
-        <v>0.09364501121871904</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.1693853333333334</v>
-      </c>
-      <c r="H20">
-        <v>0.5081560000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.377067110697553</v>
-      </c>
-      <c r="J20">
-        <v>0.4392412448839351</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.6896435000000001</v>
-      </c>
-      <c r="N20">
-        <v>1.379287</v>
-      </c>
-      <c r="O20">
-        <v>0.03192461458046126</v>
-      </c>
-      <c r="P20">
-        <v>0.02377638465777991</v>
-      </c>
-      <c r="Q20">
-        <v>0.1168154941286667</v>
-      </c>
-      <c r="R20">
-        <v>0.7008929647720001</v>
-      </c>
-      <c r="S20">
-        <v>0.0120377221799875</v>
-      </c>
-      <c r="T20">
-        <v>0.01044356879592254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1693853333333334</v>
-      </c>
-      <c r="H21">
-        <v>0.5081560000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.377067110697553</v>
-      </c>
-      <c r="J21">
-        <v>0.4392412448839351</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.068283333333333</v>
-      </c>
-      <c r="N21">
-        <v>9.20485</v>
-      </c>
-      <c r="O21">
-        <v>0.1420353600669325</v>
-      </c>
-      <c r="P21">
-        <v>0.1586747749505109</v>
-      </c>
-      <c r="Q21">
-        <v>0.5197221951777778</v>
-      </c>
-      <c r="R21">
-        <v>4.677499756600001</v>
-      </c>
-      <c r="S21">
-        <v>0.05355686283732485</v>
-      </c>
-      <c r="T21">
-        <v>0.06969650568094066</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.1693853333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.5081560000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.377067110697553</v>
-      </c>
-      <c r="J22">
-        <v>0.4392412448839351</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>5.304132666666667</v>
-      </c>
-      <c r="N22">
-        <v>15.912398</v>
-      </c>
-      <c r="O22">
-        <v>0.2455361227459804</v>
-      </c>
-      <c r="P22">
-        <v>0.2743006319030685</v>
-      </c>
-      <c r="Q22">
-        <v>0.8984422797875558</v>
-      </c>
-      <c r="R22">
-        <v>8.085980518088002</v>
-      </c>
-      <c r="S22">
-        <v>0.09258359637570654</v>
-      </c>
-      <c r="T22">
-        <v>0.1204841510295539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.1693853333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.5081560000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.377067110697553</v>
-      </c>
-      <c r="J23">
-        <v>0.4392412448839351</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>6.10631</v>
-      </c>
-      <c r="N23">
-        <v>12.21262</v>
-      </c>
-      <c r="O23">
-        <v>0.2826700944166317</v>
-      </c>
-      <c r="P23">
-        <v>0.210523227435114</v>
-      </c>
-      <c r="Q23">
-        <v>1.034319354786667</v>
-      </c>
-      <c r="R23">
-        <v>6.20591612872</v>
-      </c>
-      <c r="S23">
-        <v>0.1065855957822838</v>
-      </c>
-      <c r="T23">
-        <v>0.09247048449558325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.1693853333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.5081560000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.377067110697553</v>
-      </c>
-      <c r="J24">
-        <v>0.4392412448839351</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.9428843333333333</v>
-      </c>
-      <c r="N24">
-        <v>2.828653</v>
-      </c>
-      <c r="O24">
-        <v>0.04364750619069392</v>
-      </c>
-      <c r="P24">
-        <v>0.0487608030753448</v>
-      </c>
-      <c r="Q24">
-        <v>0.1597107770964445</v>
-      </c>
-      <c r="R24">
-        <v>1.437396993868</v>
-      </c>
-      <c r="S24">
-        <v>0.01645803904847851</v>
-      </c>
-      <c r="T24">
-        <v>0.02141775584435486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.1693853333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.5081560000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.377067110697553</v>
-      </c>
-      <c r="J25">
-        <v>0.4392412448839351</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.490996</v>
-      </c>
-      <c r="N25">
-        <v>16.472988</v>
-      </c>
-      <c r="O25">
-        <v>0.2541863019993003</v>
-      </c>
-      <c r="P25">
-        <v>0.2839641779781819</v>
-      </c>
-      <c r="Q25">
-        <v>0.9300941877920001</v>
-      </c>
-      <c r="R25">
-        <v>8.370847690128</v>
-      </c>
-      <c r="S25">
-        <v>0.09584529447377178</v>
-      </c>
-      <c r="T25">
-        <v>0.1247287790375799</v>
+        <v>0.152382351163325</v>
       </c>
     </row>
   </sheetData>
